--- a/URS/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
+++ b/URS/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AE67EB-AE37-45A8-9DEA-F02B2A222BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="122">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -165,14 +164,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>TxAmt</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acdate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>TitaTxtNo</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -225,15 +216,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">流程別  </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>經辦</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易金額</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -374,10 +357,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>入帳扣款別</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>EmpDeductDtl</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -390,10 +369,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ProcCode</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>EmpNo</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -431,14 +406,6 @@
   </si>
   <si>
     <t>mediaSeqEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AchRepayCode</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryDate,CustNo,AchRepayCode,PerfMonth,ProcCode,RepayCode,AcctCode,FacmNo,BormNo</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -471,11 +438,59 @@
 1:扣薪件;2:特約件;3:滯繳件;4:人事特約件;5:房貸扣薪件</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>入帳扣款別</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AchRepayCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxAmt</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryDate,CustNo,AchRepayCode,PerfMonth,ProcCode,RepayCode,AcctCode,FacmNo,BormNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">流程別  </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acdate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>入帳時更新</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入帳時更新</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入帳時更新</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易金額(實扣金額)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>入帳時更新</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -809,12 +824,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 2 2" xfId="6" xr:uid="{B561C22F-5966-4F88-AFBE-07FE6A8AFE64}"/>
-    <cellStyle name="一般 2 3" xfId="5" xr:uid="{1E3666D8-F48F-428B-A91C-FCAD12F0B8AC}"/>
-    <cellStyle name="一般 3" xfId="4" xr:uid="{6A9D030A-FCE7-4253-BD7E-F6E3350DB58D}"/>
-    <cellStyle name="一般 4" xfId="3" xr:uid="{02438394-6874-4F26-A6B1-8C1B2CB661AF}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2 2 2" xfId="6"/>
+    <cellStyle name="一般 2 3" xfId="5"/>
+    <cellStyle name="一般 3" xfId="4"/>
+    <cellStyle name="一般 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -905,23 +920,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -957,23 +955,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1149,11 +1130,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1173,7 +1154,7 @@
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1201,7 +1182,7 @@
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1285,10 +1266,10 @@
         <v>36</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E9" s="22">
         <v>8</v>
@@ -1300,13 +1281,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E10" s="22">
         <v>7</v>
@@ -1318,10 +1299,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>95</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>35</v>
@@ -1330,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1341,10 +1322,10 @@
         <v>37</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E12" s="22">
         <v>6</v>
@@ -1356,10 +1337,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>34</v>
@@ -1377,7 +1358,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>34</v>
@@ -1386,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1394,7 +1375,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>23</v>
@@ -1412,10 +1393,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>35</v>
@@ -1431,10 +1412,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>35</v>
@@ -1450,10 +1431,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>34</v>
@@ -1486,13 +1467,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E20" s="19">
         <v>14</v>
@@ -1504,13 +1485,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E21" s="22">
         <v>20</v>
@@ -1522,18 +1503,20 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E22" s="22">
         <v>8</v>
       </c>
-      <c r="G22" s="30"/>
+      <c r="G22" s="30" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="24">
@@ -1543,7 +1526,7 @@
         <v>39</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>34</v>
@@ -1552,14 +1535,16 @@
         <v>6</v>
       </c>
       <c r="F23" s="23"/>
-      <c r="G23" s="30"/>
+      <c r="G23" s="30" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="24">
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>27</v>
@@ -1570,14 +1555,16 @@
       <c r="E24" s="19">
         <v>8</v>
       </c>
-      <c r="G24" s="30"/>
+      <c r="G24" s="30" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="24">
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>28</v>
@@ -1588,17 +1575,19 @@
       <c r="E25" s="19">
         <v>6</v>
       </c>
-      <c r="G25" s="30"/>
+      <c r="G25" s="30" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="24">
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>35</v>
@@ -1613,10 +1602,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>34</v>
@@ -1631,10 +1620,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>34</v>
@@ -1649,10 +1638,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>34</v>
@@ -1673,7 +1662,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E30" s="22">
         <v>8</v>
@@ -1691,7 +1680,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E31" s="22">
         <v>8</v>
@@ -1703,10 +1692,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>34</v>
@@ -1721,10 +1710,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>35</v>
@@ -1739,13 +1728,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E34" s="19">
         <v>14</v>
@@ -1757,7 +1746,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>31</v>
@@ -1775,20 +1764,20 @@
         <v>28</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E36" s="34">
         <v>300</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="37" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1796,7 +1785,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>32</v>
@@ -1814,13 +1803,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E38" s="19">
         <v>14</v>
@@ -1832,20 +1821,20 @@
         <v>31</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E39" s="28">
         <v>8</v>
       </c>
       <c r="F39" s="23"/>
       <c r="G39" s="27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="81">
@@ -1853,10 +1842,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>34</v>
@@ -1866,7 +1855,7 @@
       </c>
       <c r="F40" s="23"/>
       <c r="G40" s="29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1874,20 +1863,20 @@
         <v>33</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E41" s="28">
         <v>6</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1895,20 +1884,20 @@
         <v>34</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1916,19 +1905,19 @@
         <v>35</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E43" s="22">
         <v>6</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G43" s="29"/>
     </row>
@@ -1937,20 +1926,20 @@
         <v>36</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1958,22 +1947,22 @@
         <v>37</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E45" s="22">
         <v>6</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1993,7 +1982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2022,29 +2011,29 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
